--- a/analysis/mails_01/P11_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_1/table_to_fill.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">19/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-19</t>
   </si>
   <si>
     <t xml:space="preserve">55.0538</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">MFD03535</t>
   </si>
   <si>
-    <t xml:space="preserve">09/10/2020 00:00</t>
+    <t xml:space="preserve">2020-10-09</t>
   </si>
   <si>
     <t xml:space="preserve">57.5756</t>

--- a/analysis/mails_01/P11_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -60,49 +60,55 @@
     <t xml:space="preserve">MFD02832</t>
   </si>
   <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open sea and tidal areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coasts - students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03535</t>
+  </si>
+  <si>
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7874</t>
+    <t xml:space="preserve">2020-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1437</t>
   </si>
   <si>
     <t xml:space="preserve">coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open sea and tidal areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coasts - students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1437</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03536</t>
@@ -709,19 +715,19 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -746,22 +752,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -786,22 +792,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -826,22 +832,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -866,22 +872,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -906,22 +912,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -946,22 +952,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -986,22 +992,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -1026,22 +1032,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -1066,22 +1072,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1106,22 +1112,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -1146,22 +1152,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -1186,22 +1192,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -1226,22 +1232,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1280,10 +1286,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -1291,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -1299,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1307,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1315,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1323,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1331,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1339,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1347,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1355,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1363,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -1371,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -1379,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -1387,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1395,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
